--- a/Results Urbs-Solar/Szenarien Übersicht urbs-solar.xlsx
+++ b/Results Urbs-Solar/Szenarien Übersicht urbs-solar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB2C40B-B6CB-4C98-8F95-4AB51F7B6FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B34DED-2BCE-42D3-A5BE-9481D150FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8181A6F-8B15-4A4C-B88E-1F509D76E93E}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="12150" windowHeight="11325" xr2:uid="{F8181A6F-8B15-4A4C-B88E-1F509D76E93E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
